--- a/2019_dkp/2019_12_18_dkp.xlsx
+++ b/2019_dkp/2019_12_18_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568141D4-9A10-4059-BA75-C71ADAD05607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED22CAF-8C16-4F68-9B4A-6C12C9F58568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>MC分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,179 +73,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201912-14</t>
+    <t>ZS</t>
+  </si>
+  <si>
+    <t>白色奶牛</t>
+  </si>
+  <si>
+    <t>烟灰圈圈</t>
+  </si>
+  <si>
+    <t>诶某某</t>
+  </si>
+  <si>
+    <t>哥顿</t>
+  </si>
+  <si>
+    <t>Moy</t>
+  </si>
+  <si>
+    <t>光头强</t>
+  </si>
+  <si>
+    <t>耀哥</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>魔道师傅</t>
+  </si>
+  <si>
+    <t>鸽哨</t>
+  </si>
+  <si>
+    <t>彼时年少</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>埃尔史密斯</t>
+  </si>
+  <si>
+    <t>风雨者</t>
+  </si>
+  <si>
+    <t>牛夫人如花</t>
+  </si>
+  <si>
+    <t>黄小喵</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>酥心果</t>
+  </si>
+  <si>
+    <t>亡富贵</t>
+  </si>
+  <si>
+    <t>施主来个馒头</t>
+  </si>
+  <si>
+    <t>寻找杰克船长</t>
+  </si>
+  <si>
+    <t>凤凰山排骨男</t>
+  </si>
+  <si>
+    <t>黑矮星</t>
+  </si>
+  <si>
+    <t>三季稻</t>
+  </si>
+  <si>
+    <t>溺水的鱼</t>
+  </si>
+  <si>
+    <t>黑暗小猫</t>
+  </si>
+  <si>
+    <t>血战半边天</t>
+  </si>
+  <si>
+    <t>丁沫沫</t>
+  </si>
+  <si>
+    <t>洗头膏</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>丁小沫</t>
+  </si>
+  <si>
+    <t>好吃的糯米饭</t>
+  </si>
+  <si>
+    <t>索道第一奶妈</t>
+  </si>
+  <si>
+    <t>叨逼叨</t>
+  </si>
+  <si>
+    <t>琺瑟厄</t>
+  </si>
+  <si>
+    <t>岁月无恙</t>
+  </si>
+  <si>
+    <t>那夜你好坏</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>闻人微笑</t>
+  </si>
+  <si>
+    <t>我有虎牙</t>
+  </si>
+  <si>
+    <t>欺夜</t>
+  </si>
+  <si>
+    <t>黑暗小猪</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>传奇害一生</t>
+  </si>
+  <si>
+    <t>亡德财</t>
+  </si>
+  <si>
+    <t>天黑动手</t>
+  </si>
+  <si>
+    <t>阿里之拳</t>
+  </si>
+  <si>
+    <t>边个系一碌蔗</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>丁小牛</t>
+  </si>
+  <si>
+    <t>马果果</t>
+  </si>
+  <si>
+    <t>超级牛肉饭</t>
+  </si>
+  <si>
+    <t>老牛太妖</t>
+  </si>
+  <si>
+    <t>jin</t>
+  </si>
+  <si>
+    <t>Accelerator</t>
+  </si>
+  <si>
+    <t>ZS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>白色奶牛</t>
-  </si>
-  <si>
-    <t>烟灰圈圈</t>
-  </si>
-  <si>
-    <t>诶某某</t>
-  </si>
-  <si>
-    <t>哥顿</t>
-  </si>
-  <si>
-    <t>Moy</t>
-  </si>
-  <si>
-    <t>光头强</t>
-  </si>
-  <si>
-    <t>耀哥</t>
+    <t>晓无双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SS</t>
-  </si>
-  <si>
-    <t>魔道师傅</t>
-  </si>
-  <si>
-    <t>鸽哨</t>
-  </si>
-  <si>
-    <t>彼时年少</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>埃尔史密斯</t>
-  </si>
-  <si>
-    <t>风雨者</t>
-  </si>
-  <si>
-    <t>牛夫人如花</t>
-  </si>
-  <si>
-    <t>黄小喵</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>酥心果</t>
-  </si>
-  <si>
-    <t>亡富贵</t>
-  </si>
-  <si>
-    <t>施主来个馒头</t>
-  </si>
-  <si>
-    <t>寻找杰克船长</t>
-  </si>
-  <si>
-    <t>凤凰山排骨男</t>
-  </si>
-  <si>
-    <t>黑矮星</t>
-  </si>
-  <si>
-    <t>三季稻</t>
-  </si>
-  <si>
-    <t>溺水的鱼</t>
-  </si>
-  <si>
-    <t>黑暗小猫</t>
-  </si>
-  <si>
-    <t>血战半边天</t>
-  </si>
-  <si>
-    <t>丁沫沫</t>
-  </si>
-  <si>
-    <t>洗头膏</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>丁小沫</t>
-  </si>
-  <si>
-    <t>好吃的糯米饭</t>
-  </si>
-  <si>
-    <t>索道第一奶妈</t>
-  </si>
-  <si>
-    <t>叨逼叨</t>
-  </si>
-  <si>
-    <t>琺瑟厄</t>
-  </si>
-  <si>
-    <t>岁月无恙</t>
-  </si>
-  <si>
-    <t>那夜你好坏</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>闻人微笑</t>
-  </si>
-  <si>
-    <t>我有虎牙</t>
-  </si>
-  <si>
-    <t>欺夜</t>
-  </si>
-  <si>
-    <t>黑暗小猪</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>传奇害一生</t>
-  </si>
-  <si>
-    <t>亡德财</t>
-  </si>
-  <si>
-    <t>天黑动手</t>
-  </si>
-  <si>
-    <t>阿里之拳</t>
-  </si>
-  <si>
-    <t>边个系一碌蔗</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>丁小牛</t>
-  </si>
-  <si>
-    <t>马果果</t>
-  </si>
-  <si>
-    <t>超级牛肉饭</t>
-  </si>
-  <si>
-    <t>老牛太妖</t>
-  </si>
-  <si>
-    <t>jin</t>
-  </si>
-  <si>
-    <t>Accelerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有事先走给全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201912-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P60"/>
+  <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +690,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -720,20 +740,22 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="5">
         <v>72</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
       <c r="H4" s="7">
         <f>IF(G4&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -747,25 +769,27 @@
       <c r="O4" s="5"/>
       <c r="P4" s="9">
         <f>IF(D4+H4+I4+M4 &gt; 0, D4+H4+I4+M4, "")</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <v>68</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H58" si="1">IF(G5&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" ref="H5:H60" si="1">IF(G5&lt;&gt;"", 1, 0)*H$2</f>
+        <v>4</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5"/>
@@ -778,26 +802,28 @@
       <c r="N5" s="8"/>
       <c r="O5" s="5"/>
       <c r="P5" s="9">
-        <f t="shared" ref="P5:P58" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
-        <v>68</v>
+        <f t="shared" ref="P5:P60" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5">
         <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5"/>
@@ -811,25 +837,27 @@
       <c r="O6" s="5"/>
       <c r="P6" s="9">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5">
         <v>72</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="5"/>
@@ -843,25 +871,27 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5">
         <v>22</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="5"/>
@@ -875,15 +905,15 @@
       <c r="O8" s="5"/>
       <c r="P8" s="9">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
@@ -912,18 +942,23 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -936,45 +971,47 @@
       <c r="O10" s="5"/>
       <c r="P10" s="9">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7">
-        <f t="shared" ref="M11:M58" si="3">IF(L11&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" ref="M11:M60" si="3">IF(L11&lt;&gt;"",M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P11" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>16</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
@@ -992,31 +1029,31 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="9">
-        <f t="shared" si="2"/>
-        <v>16</v>
+      <c r="P12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" s="5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>-7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="7"/>
@@ -1026,31 +1063,31 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P13" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>4</v>
+      </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>-1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I14" s="8"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="7"/>
@@ -1062,19 +1099,27 @@
       <c r="O14" s="5"/>
       <c r="P14" s="9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5">
+        <v>71</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="5"/>
@@ -1086,27 +1131,29 @@
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P15" s="9">
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D16" s="5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>4</v>
+      </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="5"/>
@@ -1120,19 +1167,13 @@
       <c r="O16" s="5"/>
       <c r="P16" s="9">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5">
-        <v>72</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1150,27 +1191,29 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="9">
-        <f t="shared" si="2"/>
-        <v>72</v>
+      <c r="P17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="5">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>3</v>
+      </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="5"/>
@@ -1184,25 +1227,27 @@
       <c r="O18" s="5"/>
       <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="5"/>
@@ -1216,19 +1261,27 @@
       <c r="O19" s="5"/>
       <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5">
+        <v>26</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="5"/>
@@ -1240,27 +1293,29 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P20" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="5"/>
@@ -1274,19 +1329,13 @@
       <c r="O21" s="5"/>
       <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="5">
-        <v>52</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -1304,29 +1353,33 @@
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="9">
-        <f t="shared" si="2"/>
-        <v>52</v>
+      <c r="P22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D23" s="5">
         <v>67</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="8">
+        <v>-7</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="7"/>
@@ -1338,18 +1391,18 @@
       <c r="O23" s="5"/>
       <c r="P23" s="9">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" s="5">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
@@ -1370,25 +1423,27 @@
       <c r="O24" s="5"/>
       <c r="P24" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7">
+        <v>6</v>
+      </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="5"/>
@@ -1402,18 +1457,18 @@
       <c r="O25" s="5"/>
       <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
@@ -1434,25 +1489,27 @@
       <c r="O26" s="5"/>
       <c r="P26" s="9">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="7">
+        <v>6</v>
+      </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="5"/>
@@ -1466,25 +1523,27 @@
       <c r="O27" s="5"/>
       <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7">
+        <v>6</v>
+      </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="5"/>
@@ -1498,18 +1557,18 @@
       <c r="O28" s="5"/>
       <c r="P28" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" s="5">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -1530,25 +1589,27 @@
       <c r="O29" s="5"/>
       <c r="P29" s="9">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5">
         <v>14</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>4</v>
+      </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="5"/>
@@ -1562,25 +1623,27 @@
       <c r="O30" s="5"/>
       <c r="P30" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>6</v>
+      </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="5"/>
@@ -1594,25 +1657,27 @@
       <c r="O31" s="5"/>
       <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>6</v>
+      </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="5"/>
@@ -1626,18 +1691,18 @@
       <c r="O32" s="5"/>
       <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
@@ -1658,19 +1723,27 @@
       <c r="O33" s="5"/>
       <c r="P33" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>8</v>
+      </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="5"/>
@@ -1682,20 +1755,20 @@
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P34" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D35" s="5">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
@@ -1716,19 +1789,13 @@
       <c r="O35" s="5"/>
       <c r="P35" s="9">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="5">
-        <v>67</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
@@ -1746,20 +1813,20 @@
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="9">
-        <f t="shared" si="2"/>
-        <v>67</v>
+      <c r="P36" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D37" s="5">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
@@ -1780,25 +1847,27 @@
       <c r="O37" s="5"/>
       <c r="P37" s="9">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>2</v>
+      </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="5"/>
@@ -1812,25 +1881,27 @@
       <c r="O38" s="5"/>
       <c r="P38" s="9">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D39" s="5">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>2</v>
+      </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="5"/>
@@ -1844,18 +1915,18 @@
       <c r="O39" s="5"/>
       <c r="P39" s="9">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D40" s="5">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
@@ -1876,25 +1947,27 @@
       <c r="O40" s="5"/>
       <c r="P40" s="9">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" s="5">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="5"/>
@@ -1908,25 +1981,27 @@
       <c r="O41" s="5"/>
       <c r="P41" s="9">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" s="5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="5"/>
@@ -1940,19 +2015,27 @@
       <c r="O42" s="5"/>
       <c r="P42" s="9">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="5">
+        <v>56</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>2</v>
+      </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
@@ -1964,27 +2047,29 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P43" s="9">
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>3</v>
+      </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
@@ -1998,19 +2083,13 @@
       <c r="O44" s="5"/>
       <c r="P44" s="9">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="5">
-        <v>72</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
@@ -2028,20 +2107,20 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="9">
-        <f t="shared" si="2"/>
-        <v>72</v>
+      <c r="P45" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D46" s="5">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
@@ -2062,25 +2141,27 @@
       <c r="O46" s="5"/>
       <c r="P46" s="9">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47" s="5">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>8</v>
+      </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="5"/>
@@ -2094,19 +2175,27 @@
       <c r="O47" s="5"/>
       <c r="P47" s="9">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="5">
+        <v>72</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>8</v>
+      </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="5"/>
@@ -2118,27 +2207,29 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P48" s="9">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" s="5">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>8</v>
+      </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="5"/>
@@ -2152,19 +2243,13 @@
       <c r="O49" s="5"/>
       <c r="P49" s="9">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="5">
-        <v>20</v>
-      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
@@ -2182,27 +2267,29 @@
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
+      <c r="P50" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D51" s="5">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>7</v>
+      </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="5"/>
@@ -2216,25 +2303,27 @@
       <c r="O51" s="5"/>
       <c r="P51" s="9">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D52" s="5">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <v>7</v>
+      </c>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="5"/>
@@ -2248,27 +2337,31 @@
       <c r="O52" s="5"/>
       <c r="P52" s="9">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="5">
         <v>55</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="5">
-        <v>66</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <v>7</v>
+      </c>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="I53" s="8">
+        <v>-40</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="7"/>
@@ -2280,18 +2373,18 @@
       <c r="O53" s="5"/>
       <c r="P53" s="9">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
@@ -2312,21 +2405,31 @@
       <c r="O54" s="5"/>
       <c r="P54" s="9">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="5">
+        <v>66</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>7</v>
+      </c>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="I55" s="8">
+        <v>-21</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="7"/>
@@ -2336,27 +2439,29 @@
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P55" s="9">
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D56" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>7</v>
+      </c>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="5"/>
@@ -2370,19 +2475,13 @@
       <c r="O56" s="5"/>
       <c r="P56" s="9">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="5">
-        <v>70</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
@@ -2400,20 +2499,20 @@
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="9">
-        <f t="shared" si="2"/>
-        <v>70</v>
+      <c r="P57" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D58" s="5">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
@@ -2434,70 +2533,140 @@
       <c r="O58" s="5"/>
       <c r="P58" s="9">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D59" s="5">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <v>4</v>
+      </c>
       <c r="H59" s="7">
-        <f t="shared" ref="H59" si="4">IF(G59&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7">
-        <f t="shared" ref="M59" si="5">IF(L59&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="5"/>
       <c r="P59" s="9">
-        <f t="shared" ref="P59" si="6">IF(D59+H59+I59+M59 &gt; 0, D59+H59+I59+M59, "")</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D60" s="5">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
       <c r="H60" s="7">
-        <f t="shared" ref="H60" si="7">IF(G60&lt;&gt;"", 1, 0)*H$2</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7">
-        <f t="shared" ref="M60" si="8">IF(L60&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N60" s="8"/>
       <c r="O60" s="5"/>
       <c r="P60" s="9">
-        <f t="shared" ref="P60" si="9">IF(D60+H60+I60+M60 &gt; 0, D60+H60+I60+M60, "")</f>
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="5">
+        <v>14</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7">
+        <v>8</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" ref="H61" si="4">IF(G61&lt;&gt;"", 1, 0)*H$2</f>
+        <v>4</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7">
+        <f t="shared" ref="M61" si="5">IF(L61&lt;&gt;"",M$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="9">
+        <f t="shared" ref="P61" si="6">IF(D61+H61+I61+M61 &gt; 0, D61+H61+I61+M61, "")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7">
+        <f t="shared" ref="H62" si="7">IF(G62&lt;&gt;"", 1, 0)*H$2</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="8"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7">
+        <f t="shared" ref="M62" si="8">IF(L62&lt;&gt;"",M$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="8"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="9">
+        <f t="shared" ref="P62" si="9">IF(D62+H62+I62+M62 &gt; 0, D62+H62+I62+M62, "")</f>
         <v>6</v>
       </c>
     </row>
@@ -2506,17 +2675,17 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L61:M1048576 F61:H1048576 L1:M58 F1:H58">
+  <conditionalFormatting sqref="L63:M1048576 F63:H1048576 F1:H60 L1:M60">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:H59 L59:M59">
+  <conditionalFormatting sqref="F61:H61 L61:M61">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60:H60 L60:M60">
+  <conditionalFormatting sqref="F62:H62 L62:M62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
